--- a/medicine/Psychotrope/Bonarda/Bonarda.xlsx
+++ b/medicine/Psychotrope/Bonarda/Bonarda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bonarda est un cépage rouge.
@@ -518,7 +530,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1970, l’ampélographe français Paul Truel découvrit, lors d’un voyage à Mendoza, que ce cépage était en fait le corbeau, appelé aussi douce noire et charbonneau. Il est courant en Savoie. Il est parfois affirmé que le dolcetto nero utilisé en Italie serait le même cépage, mais cette assertion est disputée. D’Argentine, le bonarda a ensuite été exporté en Californie, où on l’appelle charbono.
 </t>
@@ -549,7 +563,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Corvina, Croatta, Croattina, Crovattina, Crovettina, Uga del zio, Neretto, Uva Vermiglia, Nebbiolo di Gattinara, Bonarda di Rovescala, Bonarda Grossa
 </t>
@@ -580,7 +596,9 @@
           <t>Production et utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le bonarda est le cépage rouge le plus cultivé en volume en Argentine en 2006, tandis qu'en termes d'hectares, le malbec est davantage cultivé. Il est surtout utilisé pour produire des vins de table. Toutefois, on commence à en faire des vins de qualité, le raisin devant pour cela être amené à pleine maturité.
 Les appellations où entre en assemblage le bonarda sont : 
